--- a/data/takipTahmin_banka.xlsx
+++ b/data/takipTahmin_banka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uguraskar\Documents\Github\pjournal_mef04-uguraskar\mef04-uguraskar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365C3289-3C15-4FEB-95C8-AA61C70B8F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF84346E-AAA7-4D91-BAAF-F65E4F298B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isyatirim" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,6 @@
     <t>AKBNK</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
     <t>26.11.2020</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
     <t>ALBRK</t>
   </si>
   <si>
-    <t>TUT</t>
-  </si>
-  <si>
     <t>04.09.2020</t>
   </si>
   <si>
@@ -52,9 +46,6 @@
     <t>TSKB</t>
   </si>
   <si>
-    <t>SAT</t>
-  </si>
-  <si>
     <t>03.11.2020</t>
   </si>
   <si>
@@ -95,6 +86,15 @@
   </si>
   <si>
     <t>3 Months(mn TL)</t>
+  </si>
+  <si>
+    <t>HOLD</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>SELL</t>
   </si>
 </sst>
 </file>
@@ -459,41 +459,41 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -510,13 +510,13 @@
         <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>5869.52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -530,10 +530,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -542,13 +542,13 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>174.14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -562,10 +562,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
         <v>13.21</v>
@@ -574,13 +574,13 @@
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>7139.44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -594,10 +594,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1">
         <v>8.43</v>
@@ -606,13 +606,13 @@
         <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>2773.19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -626,10 +626,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>1.93</v>
@@ -638,13 +638,13 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>734.23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H6" s="1">
         <v>0</v>
@@ -658,10 +658,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
         <v>8</v>
@@ -670,13 +670,13 @@
         <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>5237.18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
         <v>0</v>
@@ -690,10 +690,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -702,13 +702,13 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <v>5855.96</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
